--- a/biology/Botanique/Réserve_forestière_de_Bafut-Ngemba/Réserve_forestière_de_Bafut-Ngemba.xlsx
+++ b/biology/Botanique/Réserve_forestière_de_Bafut-Ngemba/Réserve_forestière_de_Bafut-Ngemba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_foresti%C3%A8re_de_Bafut-Ngemba</t>
+          <t>Réserve_forestière_de_Bafut-Ngemba</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La réserve forestière de Bafut-Ngemba (Bafut-Ngemba Forest Reserve  en anglais, BNFR en sigle) est une réserve naturelle, classée en 1953, située dans la Région du Nord-Ouest au Cameroun, à 35 km de Bamenda et à 3 km de Santa, sur une altitude comprise entre 1800 et 2 500 m, avec une superficie de 4 218 hectares[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La réserve forestière de Bafut-Ngemba (Bafut-Ngemba Forest Reserve  en anglais, BNFR en sigle) est une réserve naturelle, classée en 1953, située dans la Région du Nord-Ouest au Cameroun, à 35 km de Bamenda et à 3 km de Santa, sur une altitude comprise entre 1800 et 2 500 m, avec une superficie de 4 218 hectares.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9serve_foresti%C3%A8re_de_Bafut-Ngemba</t>
+          <t>Réserve_forestière_de_Bafut-Ngemba</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Faune et flore</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On y observe diverses espèces endémiques et/ou rares, animales (l'amphibien Astylosternus rheophilus, le reptile Leptosiaphos ianthinoxantha[2]) et végétales (Blumea crispata, Crotalaria ledermannii, Dalbergia oligophylla , Dissotis bambutorum, Dissotis longisetosa, Helichrysum cameroonense, Plectranthus insignis, Psorospermum aurantiacum, Tapinanthus letouzeyi).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On y observe diverses espèces endémiques et/ou rares, animales (l'amphibien Astylosternus rheophilus, le reptile Leptosiaphos ianthinoxantha) et végétales (Blumea crispata, Crotalaria ledermannii, Dalbergia oligophylla , Dissotis bambutorum, Dissotis longisetosa, Helichrysum cameroonense, Plectranthus insignis, Psorospermum aurantiacum, Tapinanthus letouzeyi).
 </t>
         </is>
       </c>
